--- a/random_penn_treebank_short_sentences.xlsx
+++ b/random_penn_treebank_short_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F4264-4512-412D-903F-D4940D75E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A15A9-422D-42E2-831E-676016F41644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="2790" windowWidth="11100" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -6352,7 +6352,7 @@
   <dimension ref="A1:A2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
